--- a/filter_block_scheme.xlsx
+++ b/filter_block_scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\DvG_Arduino_lock-in_amp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E373C0-6B75-4FB0-A7DB-F7B1B683107D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B42603-03F6-4301-A2F6-123B099B99AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="9324" xr2:uid="{510F3D6B-1760-46A9-A2D1-5CC1E141F14C}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -451,7 +451,7 @@
       </c>
       <c r="B4">
         <f>B1-B2+1</f>
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
       </c>
       <c r="B5">
         <f>(B2-1)/2</f>
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -501,15 +501,15 @@
       </c>
       <c r="F9" s="1">
         <f>E9+$B$1</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G9">
         <f>E9+$B$5</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <f>G9+$B$4</f>
-        <v>150</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -518,19 +518,19 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10:E13" si="0">D10*$B$4</f>
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F13" si="1">E10+$B$1</f>
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="G10">
         <f t="shared" ref="G10:G13" si="2">E10+$B$5</f>
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="H10">
         <f t="shared" ref="H10:H13" si="3">G10+$B$4</f>
-        <v>250</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -539,19 +539,19 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>502</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>350</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -560,19 +560,19 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>628</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>440</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>450</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -581,19 +581,19 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>754</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>550</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
